--- a/natmiOut/OldD2/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -89,12 +98,6 @@
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.378121479717669</v>
+        <v>1.019961</v>
       </c>
       <c r="H2">
-        <v>0.378121479717669</v>
+        <v>2.039922</v>
       </c>
       <c r="I2">
-        <v>0.3347246604646241</v>
+        <v>0.3840722173751125</v>
       </c>
       <c r="J2">
-        <v>0.3347246604646241</v>
+        <v>0.3057640068128024</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.87982053014031</v>
+        <v>1.921801</v>
       </c>
       <c r="N2">
-        <v>1.87982053014031</v>
+        <v>3.843602</v>
       </c>
       <c r="O2">
-        <v>0.3139184641402641</v>
+        <v>0.2963026861879742</v>
       </c>
       <c r="P2">
-        <v>0.3139184641402641</v>
+        <v>0.2443427896918877</v>
       </c>
       <c r="Q2">
-        <v>0.7108005204603071</v>
+        <v>1.960162069761</v>
       </c>
       <c r="R2">
-        <v>0.7108005204603071</v>
+        <v>7.840648279043998</v>
       </c>
       <c r="S2">
-        <v>0.1050762513229262</v>
+        <v>0.1138016296984174</v>
       </c>
       <c r="T2">
-        <v>0.1050762513229262</v>
+        <v>0.0747112304120095</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.378121479717669</v>
+        <v>1.019961</v>
       </c>
       <c r="H3">
-        <v>0.378121479717669</v>
+        <v>2.039922</v>
       </c>
       <c r="I3">
-        <v>0.3347246604646241</v>
+        <v>0.3840722173751125</v>
       </c>
       <c r="J3">
-        <v>0.3347246604646241</v>
+        <v>0.3057640068128024</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.140412666828495</v>
+        <v>0.1523196666666667</v>
       </c>
       <c r="N3">
-        <v>0.140412666828495</v>
+        <v>0.456959</v>
       </c>
       <c r="O3">
-        <v>0.02344805156125716</v>
+        <v>0.02348459928608122</v>
       </c>
       <c r="P3">
-        <v>0.02344805156125716</v>
+        <v>0.02904947932559493</v>
       </c>
       <c r="Q3">
-        <v>0.05309304535229458</v>
+        <v>0.155360119533</v>
       </c>
       <c r="R3">
-        <v>0.05309304535229458</v>
+        <v>0.9321607171979999</v>
       </c>
       <c r="S3">
-        <v>0.007848641097398801</v>
+        <v>0.009019782121971196</v>
       </c>
       <c r="T3">
-        <v>0.007848641097398801</v>
+        <v>0.008882285194419571</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.378121479717669</v>
+        <v>1.019961</v>
       </c>
       <c r="H4">
-        <v>0.378121479717669</v>
+        <v>2.039922</v>
       </c>
       <c r="I4">
-        <v>0.3347246604646241</v>
+        <v>0.3840722173751125</v>
       </c>
       <c r="J4">
-        <v>0.3347246604646241</v>
+        <v>0.3057640068128024</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.983069956635791</v>
+        <v>0.4109286666666667</v>
       </c>
       <c r="N4">
-        <v>0.983069956635791</v>
+        <v>1.232786</v>
       </c>
       <c r="O4">
-        <v>0.164166635049203</v>
+        <v>0.06335685524410488</v>
       </c>
       <c r="P4">
-        <v>0.164166635049203</v>
+        <v>0.07836981309019599</v>
       </c>
       <c r="Q4">
-        <v>0.37171986666911</v>
+        <v>0.419131213782</v>
       </c>
       <c r="R4">
-        <v>0.37171986666911</v>
+        <v>2.514787282692</v>
       </c>
       <c r="S4">
-        <v>0.05495062117646433</v>
+        <v>0.02433360787951739</v>
       </c>
       <c r="T4">
-        <v>0.05495062117646433</v>
+        <v>0.02396266806362874</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.378121479717669</v>
+        <v>1.019961</v>
       </c>
       <c r="H5">
-        <v>0.378121479717669</v>
+        <v>2.039922</v>
       </c>
       <c r="I5">
-        <v>0.3347246604646241</v>
+        <v>0.3840722173751125</v>
       </c>
       <c r="J5">
-        <v>0.3347246604646241</v>
+        <v>0.3057640068128024</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.1836409249962</v>
+        <v>0.9978816666666667</v>
       </c>
       <c r="N5">
-        <v>1.1836409249962</v>
+        <v>2.993645</v>
       </c>
       <c r="O5">
-        <v>0.1976607528808269</v>
+        <v>0.1538530879789666</v>
       </c>
       <c r="P5">
-        <v>0.1976607528808269</v>
+        <v>0.1903099151907953</v>
       </c>
       <c r="Q5">
-        <v>0.4475600580139537</v>
+        <v>1.017800382615</v>
       </c>
       <c r="R5">
-        <v>0.4475600580139537</v>
+        <v>6.106802295689999</v>
       </c>
       <c r="S5">
-        <v>0.06616192839521673</v>
+        <v>0.05909069665008997</v>
       </c>
       <c r="T5">
-        <v>0.06616192839521673</v>
+        <v>0.05818992220494218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,72 +776,72 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.378121479717669</v>
+        <v>1.019961</v>
       </c>
       <c r="H6">
-        <v>0.378121479717669</v>
+        <v>2.039922</v>
       </c>
       <c r="I6">
-        <v>0.3347246604646241</v>
+        <v>0.3840722173751125</v>
       </c>
       <c r="J6">
-        <v>0.3347246604646241</v>
+        <v>0.3057640068128024</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.80130046537217</v>
+        <v>1.197361</v>
       </c>
       <c r="N6">
-        <v>1.80130046537217</v>
+        <v>3.592083</v>
       </c>
       <c r="O6">
-        <v>0.3008060963684488</v>
+        <v>0.1846087501446398</v>
       </c>
       <c r="P6">
-        <v>0.3008060963684488</v>
+        <v>0.2283533989796043</v>
       </c>
       <c r="Q6">
-        <v>0.6811103973826508</v>
+        <v>1.221261522921</v>
       </c>
       <c r="R6">
-        <v>0.6811103973826508</v>
+        <v>7.327569137525999</v>
       </c>
       <c r="S6">
-        <v>0.100687218472618</v>
+        <v>0.07090309201489993</v>
       </c>
       <c r="T6">
-        <v>0.100687218472618</v>
+        <v>0.06982225024132632</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -847,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.488176406658805</v>
+        <v>1.019961</v>
       </c>
       <c r="H7">
-        <v>0.488176406658805</v>
+        <v>2.039922</v>
       </c>
       <c r="I7">
-        <v>0.4321486366966449</v>
+        <v>0.3840722173751125</v>
       </c>
       <c r="J7">
-        <v>0.4321486366966449</v>
+        <v>0.3057640068128024</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.87982053014031</v>
+        <v>1.8056465</v>
       </c>
       <c r="N7">
-        <v>1.87982053014031</v>
+        <v>3.611293</v>
       </c>
       <c r="O7">
-        <v>0.3139184641402641</v>
+        <v>0.2783940211582333</v>
       </c>
       <c r="P7">
-        <v>0.3139184641402641</v>
+        <v>0.2295746037219218</v>
       </c>
       <c r="Q7">
-        <v>0.9176840315673463</v>
+        <v>1.8416890097865</v>
       </c>
       <c r="R7">
-        <v>0.9176840315673463</v>
+        <v>7.366756039145999</v>
       </c>
       <c r="S7">
-        <v>0.1356594363121198</v>
+        <v>0.1069234090102166</v>
       </c>
       <c r="T7">
-        <v>0.1356594363121198</v>
+        <v>0.07019565069647613</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.488176406658805</v>
+        <v>0.4297340000000001</v>
       </c>
       <c r="H8">
-        <v>0.488176406658805</v>
+        <v>1.289202</v>
       </c>
       <c r="I8">
-        <v>0.4321486366966449</v>
+        <v>0.1618188247016078</v>
       </c>
       <c r="J8">
-        <v>0.4321486366966449</v>
+        <v>0.1932385498617489</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.140412666828495</v>
+        <v>1.921801</v>
       </c>
       <c r="N8">
-        <v>0.140412666828495</v>
+        <v>3.843602</v>
       </c>
       <c r="O8">
-        <v>0.02344805156125716</v>
+        <v>0.2963026861879742</v>
       </c>
       <c r="P8">
-        <v>0.02344805156125716</v>
+        <v>0.2443427896918877</v>
       </c>
       <c r="Q8">
-        <v>0.06854615114171467</v>
+        <v>0.825863230934</v>
       </c>
       <c r="R8">
-        <v>0.06854615114171467</v>
+        <v>4.955179385604001</v>
       </c>
       <c r="S8">
-        <v>0.01013304351538992</v>
+        <v>0.04794735243486731</v>
       </c>
       <c r="T8">
-        <v>0.01013304351538992</v>
+        <v>0.04721644634923467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.488176406658805</v>
+        <v>0.4297340000000001</v>
       </c>
       <c r="H9">
-        <v>0.488176406658805</v>
+        <v>1.289202</v>
       </c>
       <c r="I9">
-        <v>0.4321486366966449</v>
+        <v>0.1618188247016078</v>
       </c>
       <c r="J9">
-        <v>0.4321486366966449</v>
+        <v>0.1932385498617489</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.983069956635791</v>
+        <v>0.1523196666666667</v>
       </c>
       <c r="N9">
-        <v>0.983069956635791</v>
+        <v>0.456959</v>
       </c>
       <c r="O9">
-        <v>0.164166635049203</v>
+        <v>0.02348459928608122</v>
       </c>
       <c r="P9">
-        <v>0.164166635049203</v>
+        <v>0.02904947932559493</v>
       </c>
       <c r="Q9">
-        <v>0.4799115589246877</v>
+        <v>0.06545693963533333</v>
       </c>
       <c r="R9">
-        <v>0.4799115589246877</v>
+        <v>0.5891124567180001</v>
       </c>
       <c r="S9">
-        <v>0.07094438752758873</v>
+        <v>0.003800250255061881</v>
       </c>
       <c r="T9">
-        <v>0.07094438752758873</v>
+        <v>0.00561347925911682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.488176406658805</v>
+        <v>0.4297340000000001</v>
       </c>
       <c r="H10">
-        <v>0.488176406658805</v>
+        <v>1.289202</v>
       </c>
       <c r="I10">
-        <v>0.4321486366966449</v>
+        <v>0.1618188247016078</v>
       </c>
       <c r="J10">
-        <v>0.4321486366966449</v>
+        <v>0.1932385498617489</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.1836409249962</v>
+        <v>0.4109286666666667</v>
       </c>
       <c r="N10">
-        <v>1.1836409249962</v>
+        <v>1.232786</v>
       </c>
       <c r="O10">
-        <v>0.1976607528808269</v>
+        <v>0.06335685524410488</v>
       </c>
       <c r="P10">
-        <v>0.1976607528808269</v>
+        <v>0.07836981309019599</v>
       </c>
       <c r="Q10">
-        <v>0.5778255735389491</v>
+        <v>0.1765900196413334</v>
       </c>
       <c r="R10">
-        <v>0.5778255735389491</v>
+        <v>1.589310176772</v>
       </c>
       <c r="S10">
-        <v>0.08541882488588176</v>
+        <v>0.01025233185239095</v>
       </c>
       <c r="T10">
-        <v>0.08541882488588176</v>
+        <v>0.01514406903448578</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.488176406658805</v>
+        <v>0.4297340000000001</v>
       </c>
       <c r="H11">
-        <v>0.488176406658805</v>
+        <v>1.289202</v>
       </c>
       <c r="I11">
-        <v>0.4321486366966449</v>
+        <v>0.1618188247016078</v>
       </c>
       <c r="J11">
-        <v>0.4321486366966449</v>
+        <v>0.1932385498617489</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.80130046537217</v>
+        <v>0.9978816666666667</v>
       </c>
       <c r="N11">
-        <v>1.80130046537217</v>
+        <v>2.993645</v>
       </c>
       <c r="O11">
-        <v>0.3008060963684488</v>
+        <v>0.1538530879789666</v>
       </c>
       <c r="P11">
-        <v>0.3008060963684488</v>
+        <v>0.1903099151907953</v>
       </c>
       <c r="Q11">
-        <v>0.8793523884982192</v>
+        <v>0.4288236801433334</v>
       </c>
       <c r="R11">
-        <v>0.8793523884982192</v>
+        <v>3.85941312129</v>
       </c>
       <c r="S11">
-        <v>0.1299929444556648</v>
+        <v>0.02489632587346944</v>
       </c>
       <c r="T11">
-        <v>0.1299929444556648</v>
+        <v>0.03677521203578171</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.263351417600134</v>
+        <v>0.4297340000000001</v>
       </c>
       <c r="H12">
-        <v>0.263351417600134</v>
+        <v>1.289202</v>
       </c>
       <c r="I12">
-        <v>0.233126702838731</v>
+        <v>0.1618188247016078</v>
       </c>
       <c r="J12">
-        <v>0.233126702838731</v>
+        <v>0.1932385498617489</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.87982053014031</v>
+        <v>1.197361</v>
       </c>
       <c r="N12">
-        <v>1.87982053014031</v>
+        <v>3.592083</v>
       </c>
       <c r="O12">
-        <v>0.3139184641402641</v>
+        <v>0.1846087501446398</v>
       </c>
       <c r="P12">
-        <v>0.3139184641402641</v>
+        <v>0.2283533989796043</v>
       </c>
       <c r="Q12">
-        <v>0.495053401446286</v>
+        <v>0.514546731974</v>
       </c>
       <c r="R12">
-        <v>0.495053401446286</v>
+        <v>4.630920587766</v>
       </c>
       <c r="S12">
-        <v>0.07318277650521818</v>
+        <v>0.02987317097803839</v>
       </c>
       <c r="T12">
-        <v>0.07318277650521818</v>
+        <v>0.04412667967482011</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.263351417600134</v>
+        <v>0.4297340000000001</v>
       </c>
       <c r="H13">
-        <v>0.263351417600134</v>
+        <v>1.289202</v>
       </c>
       <c r="I13">
-        <v>0.233126702838731</v>
+        <v>0.1618188247016078</v>
       </c>
       <c r="J13">
-        <v>0.233126702838731</v>
+        <v>0.1932385498617489</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.140412666828495</v>
+        <v>1.8056465</v>
       </c>
       <c r="N13">
-        <v>0.140412666828495</v>
+        <v>3.611293</v>
       </c>
       <c r="O13">
-        <v>0.02344805156125716</v>
+        <v>0.2783940211582333</v>
       </c>
       <c r="P13">
-        <v>0.02344805156125716</v>
+        <v>0.2295746037219218</v>
       </c>
       <c r="Q13">
-        <v>0.03697787485829946</v>
+        <v>0.7759476930310001</v>
       </c>
       <c r="R13">
-        <v>0.03697787485829946</v>
+        <v>4.655686158186001</v>
       </c>
       <c r="S13">
-        <v>0.005466366948468439</v>
+        <v>0.04504939330777986</v>
       </c>
       <c r="T13">
-        <v>0.005466366948468439</v>
+        <v>0.04436266350830985</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.263351417600134</v>
+        <v>0.08729066666666667</v>
       </c>
       <c r="H14">
-        <v>0.263351417600134</v>
+        <v>0.261872</v>
       </c>
       <c r="I14">
-        <v>0.233126702838731</v>
+        <v>0.03286980571102081</v>
       </c>
       <c r="J14">
-        <v>0.233126702838731</v>
+        <v>0.03925200669049219</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.983069956635791</v>
+        <v>1.921801</v>
       </c>
       <c r="N14">
-        <v>0.983069956635791</v>
+        <v>3.843602</v>
       </c>
       <c r="O14">
-        <v>0.164166635049203</v>
+        <v>0.2963026861879742</v>
       </c>
       <c r="P14">
-        <v>0.164166635049203</v>
+        <v>0.2443427896918877</v>
       </c>
       <c r="Q14">
-        <v>0.2588928666801378</v>
+        <v>0.1677552904906666</v>
       </c>
       <c r="R14">
-        <v>0.2588928666801378</v>
+        <v>1.006531742944</v>
       </c>
       <c r="S14">
-        <v>0.03827162634514995</v>
+        <v>0.00973941172665228</v>
       </c>
       <c r="T14">
-        <v>0.03827162634514995</v>
+        <v>0.009590944815759502</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1343,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.263351417600134</v>
+        <v>0.08729066666666667</v>
       </c>
       <c r="H15">
-        <v>0.263351417600134</v>
+        <v>0.261872</v>
       </c>
       <c r="I15">
-        <v>0.233126702838731</v>
+        <v>0.03286980571102081</v>
       </c>
       <c r="J15">
-        <v>0.233126702838731</v>
+        <v>0.03925200669049219</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.1836409249962</v>
+        <v>0.1523196666666667</v>
       </c>
       <c r="N15">
-        <v>1.1836409249962</v>
+        <v>0.456959</v>
       </c>
       <c r="O15">
-        <v>0.1976607528808269</v>
+        <v>0.02348459928608122</v>
       </c>
       <c r="P15">
-        <v>0.1976607528808269</v>
+        <v>0.02904947932559493</v>
       </c>
       <c r="Q15">
-        <v>0.3117135155272832</v>
+        <v>0.01329608524977778</v>
       </c>
       <c r="R15">
-        <v>0.3117135155272832</v>
+        <v>0.119664767248</v>
       </c>
       <c r="S15">
-        <v>0.04607999959972835</v>
+        <v>0.0007719342157346675</v>
       </c>
       <c r="T15">
-        <v>0.04607999959972835</v>
+        <v>0.001140250356843567</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1405,49 +1408,1351 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.263351417600134</v>
+        <v>0.08729066666666667</v>
       </c>
       <c r="H16">
-        <v>0.263351417600134</v>
+        <v>0.261872</v>
       </c>
       <c r="I16">
-        <v>0.233126702838731</v>
+        <v>0.03286980571102081</v>
       </c>
       <c r="J16">
-        <v>0.233126702838731</v>
+        <v>0.03925200669049219</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.80130046537217</v>
+        <v>0.4109286666666667</v>
       </c>
       <c r="N16">
-        <v>1.80130046537217</v>
+        <v>1.232786</v>
       </c>
       <c r="O16">
-        <v>0.3008060963684488</v>
+        <v>0.06335685524410488</v>
       </c>
       <c r="P16">
-        <v>0.3008060963684488</v>
+        <v>0.07836981309019599</v>
       </c>
       <c r="Q16">
-        <v>0.474375031079542</v>
+        <v>0.03587023726577778</v>
       </c>
       <c r="R16">
-        <v>0.474375031079542</v>
+        <v>0.322832135392</v>
       </c>
       <c r="S16">
-        <v>0.07012593344016604</v>
+        <v>0.002082527522334997</v>
       </c>
       <c r="T16">
-        <v>0.07012593344016604</v>
+        <v>0.003076172427748995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.08729066666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.261872</v>
+      </c>
+      <c r="I17">
+        <v>0.03286980571102081</v>
+      </c>
+      <c r="J17">
+        <v>0.03925200669049219</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9978816666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.993645</v>
+      </c>
+      <c r="O17">
+        <v>0.1538530879789666</v>
+      </c>
+      <c r="P17">
+        <v>0.1903099151907953</v>
+      </c>
+      <c r="Q17">
+        <v>0.08710575593777778</v>
+      </c>
+      <c r="R17">
+        <v>0.7839518034399999</v>
+      </c>
+      <c r="S17">
+        <v>0.005057121109909223</v>
+      </c>
+      <c r="T17">
+        <v>0.007470046064336098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.08729066666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.261872</v>
+      </c>
+      <c r="I18">
+        <v>0.03286980571102081</v>
+      </c>
+      <c r="J18">
+        <v>0.03925200669049219</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.197361</v>
+      </c>
+      <c r="N18">
+        <v>3.592083</v>
+      </c>
+      <c r="O18">
+        <v>0.1846087501446398</v>
+      </c>
+      <c r="P18">
+        <v>0.2283533989796043</v>
+      </c>
+      <c r="Q18">
+        <v>0.1045184399306667</v>
+      </c>
+      <c r="R18">
+        <v>0.9406659593759999</v>
+      </c>
+      <c r="S18">
+        <v>0.006068053749808695</v>
+      </c>
+      <c r="T18">
+        <v>0.00896332914454406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.08729066666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.261872</v>
+      </c>
+      <c r="I19">
+        <v>0.03286980571102081</v>
+      </c>
+      <c r="J19">
+        <v>0.03925200669049219</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.8056465</v>
+      </c>
+      <c r="N19">
+        <v>3.611293</v>
+      </c>
+      <c r="O19">
+        <v>0.2783940211582333</v>
+      </c>
+      <c r="P19">
+        <v>0.2295746037219218</v>
+      </c>
+      <c r="Q19">
+        <v>0.1576160867493333</v>
+      </c>
+      <c r="R19">
+        <v>0.9456965204959999</v>
+      </c>
+      <c r="S19">
+        <v>0.009150757386580945</v>
+      </c>
+      <c r="T19">
+        <v>0.00901126388125997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.2427346666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.728204</v>
+      </c>
+      <c r="I20">
+        <v>0.09140314351281616</v>
+      </c>
+      <c r="J20">
+        <v>0.1091505326267916</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.921801</v>
+      </c>
+      <c r="N20">
+        <v>3.843602</v>
+      </c>
+      <c r="O20">
+        <v>0.2963026861879742</v>
+      </c>
+      <c r="P20">
+        <v>0.2443427896918877</v>
+      </c>
+      <c r="Q20">
+        <v>0.4664877251346666</v>
+      </c>
+      <c r="R20">
+        <v>2.798926350808</v>
+      </c>
+      <c r="S20">
+        <v>0.02708299694887233</v>
+      </c>
+      <c r="T20">
+        <v>0.02667014563838567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2427346666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.728204</v>
+      </c>
+      <c r="I21">
+        <v>0.09140314351281616</v>
+      </c>
+      <c r="J21">
+        <v>0.1091505326267916</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1523196666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.456959</v>
+      </c>
+      <c r="O21">
+        <v>0.02348459928608122</v>
+      </c>
+      <c r="P21">
+        <v>0.02904947932559493</v>
+      </c>
+      <c r="Q21">
+        <v>0.03697326351511111</v>
+      </c>
+      <c r="R21">
+        <v>0.332759371636</v>
+      </c>
+      <c r="S21">
+        <v>0.002146566198886661</v>
+      </c>
+      <c r="T21">
+        <v>0.003170766140919658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.2427346666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.728204</v>
+      </c>
+      <c r="I22">
+        <v>0.09140314351281616</v>
+      </c>
+      <c r="J22">
+        <v>0.1091505326267916</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.4109286666666667</v>
+      </c>
+      <c r="N22">
+        <v>1.232786</v>
+      </c>
+      <c r="O22">
+        <v>0.06335685524410488</v>
+      </c>
+      <c r="P22">
+        <v>0.07836981309019599</v>
+      </c>
+      <c r="Q22">
+        <v>0.09974663292711111</v>
+      </c>
+      <c r="R22">
+        <v>0.897719696344</v>
+      </c>
+      <c r="S22">
+        <v>0.005791015732397637</v>
+      </c>
+      <c r="T22">
+        <v>0.008554106840656998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.2427346666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.728204</v>
+      </c>
+      <c r="I23">
+        <v>0.09140314351281616</v>
+      </c>
+      <c r="J23">
+        <v>0.1091505326267916</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9978816666666667</v>
+      </c>
+      <c r="N23">
+        <v>2.993645</v>
+      </c>
+      <c r="O23">
+        <v>0.1538530879789666</v>
+      </c>
+      <c r="P23">
+        <v>0.1903099151907953</v>
+      </c>
+      <c r="Q23">
+        <v>0.2422204737311111</v>
+      </c>
+      <c r="R23">
+        <v>2.17998426358</v>
+      </c>
+      <c r="S23">
+        <v>0.01406265588043141</v>
+      </c>
+      <c r="T23">
+        <v>0.02077242860723484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.2427346666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.728204</v>
+      </c>
+      <c r="I24">
+        <v>0.09140314351281616</v>
+      </c>
+      <c r="J24">
+        <v>0.1091505326267916</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.197361</v>
+      </c>
+      <c r="N24">
+        <v>3.592083</v>
+      </c>
+      <c r="O24">
+        <v>0.1846087501446398</v>
+      </c>
+      <c r="P24">
+        <v>0.2283533989796043</v>
+      </c>
+      <c r="Q24">
+        <v>0.2906410232146666</v>
+      </c>
+      <c r="R24">
+        <v>2.615769208931999</v>
+      </c>
+      <c r="S24">
+        <v>0.01687382008319213</v>
+      </c>
+      <c r="T24">
+        <v>0.02492489512576206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.2427346666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.728204</v>
+      </c>
+      <c r="I25">
+        <v>0.09140314351281616</v>
+      </c>
+      <c r="J25">
+        <v>0.1091505326267916</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.8056465</v>
+      </c>
+      <c r="N25">
+        <v>3.611293</v>
+      </c>
+      <c r="O25">
+        <v>0.2783940211582333</v>
+      </c>
+      <c r="P25">
+        <v>0.2295746037219218</v>
+      </c>
+      <c r="Q25">
+        <v>0.4382930012953333</v>
+      </c>
+      <c r="R25">
+        <v>2.629758007772</v>
+      </c>
+      <c r="S25">
+        <v>0.02544608866903598</v>
+      </c>
+      <c r="T25">
+        <v>0.02505819027383238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.6004996666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.801499</v>
+      </c>
+      <c r="I26">
+        <v>0.2261216247578904</v>
+      </c>
+      <c r="J26">
+        <v>0.270026771861501</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.921801</v>
+      </c>
+      <c r="N26">
+        <v>3.843602</v>
+      </c>
+      <c r="O26">
+        <v>0.2963026861879742</v>
+      </c>
+      <c r="P26">
+        <v>0.2443427896918877</v>
+      </c>
+      <c r="Q26">
+        <v>1.154040859899667</v>
+      </c>
+      <c r="R26">
+        <v>6.924245159398</v>
+      </c>
+      <c r="S26">
+        <v>0.06700044482095203</v>
+      </c>
+      <c r="T26">
+        <v>0.06597909472813407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.6004996666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.801499</v>
+      </c>
+      <c r="I27">
+        <v>0.2261216247578904</v>
+      </c>
+      <c r="J27">
+        <v>0.270026771861501</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.1523196666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.456959</v>
+      </c>
+      <c r="O27">
+        <v>0.02348459928608122</v>
+      </c>
+      <c r="P27">
+        <v>0.02904947932559493</v>
+      </c>
+      <c r="Q27">
+        <v>0.09146790906011111</v>
+      </c>
+      <c r="R27">
+        <v>0.823211181541</v>
+      </c>
+      <c r="S27">
+        <v>0.005310375747356677</v>
+      </c>
+      <c r="T27">
+        <v>0.007844137126547811</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.6004996666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.801499</v>
+      </c>
+      <c r="I28">
+        <v>0.2261216247578904</v>
+      </c>
+      <c r="J28">
+        <v>0.270026771861501</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.4109286666666667</v>
+      </c>
+      <c r="N28">
+        <v>1.232786</v>
+      </c>
+      <c r="O28">
+        <v>0.06335685524410488</v>
+      </c>
+      <c r="P28">
+        <v>0.07836981309019599</v>
+      </c>
+      <c r="Q28">
+        <v>0.2467625273571111</v>
+      </c>
+      <c r="R28">
+        <v>2.220862746214</v>
+      </c>
+      <c r="S28">
+        <v>0.01432635504734746</v>
+      </c>
+      <c r="T28">
+        <v>0.02116194764013482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.6004996666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.801499</v>
+      </c>
+      <c r="I29">
+        <v>0.2261216247578904</v>
+      </c>
+      <c r="J29">
+        <v>0.270026771861501</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.9978816666666667</v>
+      </c>
+      <c r="N29">
+        <v>2.993645</v>
+      </c>
+      <c r="O29">
+        <v>0.1538530879789666</v>
+      </c>
+      <c r="P29">
+        <v>0.1903099151907953</v>
+      </c>
+      <c r="Q29">
+        <v>0.5992276082061111</v>
+      </c>
+      <c r="R29">
+        <v>5.393048473855</v>
+      </c>
+      <c r="S29">
+        <v>0.03478951022782258</v>
+      </c>
+      <c r="T29">
+        <v>0.05138877205220648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.6004996666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.801499</v>
+      </c>
+      <c r="I30">
+        <v>0.2261216247578904</v>
+      </c>
+      <c r="J30">
+        <v>0.270026771861501</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.197361</v>
+      </c>
+      <c r="N30">
+        <v>3.592083</v>
+      </c>
+      <c r="O30">
+        <v>0.1846087501446398</v>
+      </c>
+      <c r="P30">
+        <v>0.2283533989796043</v>
+      </c>
+      <c r="Q30">
+        <v>0.7190148813796666</v>
+      </c>
+      <c r="R30">
+        <v>6.471133932417</v>
+      </c>
+      <c r="S30">
+        <v>0.04174403052722938</v>
+      </c>
+      <c r="T30">
+        <v>0.06166153117006392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.6004996666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.801499</v>
+      </c>
+      <c r="I31">
+        <v>0.2261216247578904</v>
+      </c>
+      <c r="J31">
+        <v>0.270026771861501</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.8056465</v>
+      </c>
+      <c r="N31">
+        <v>3.611293</v>
+      </c>
+      <c r="O31">
+        <v>0.2783940211582333</v>
+      </c>
+      <c r="P31">
+        <v>0.2295746037219218</v>
+      </c>
+      <c r="Q31">
+        <v>1.084290121367833</v>
+      </c>
+      <c r="R31">
+        <v>6.505740728207</v>
+      </c>
+      <c r="S31">
+        <v>0.06295090838718222</v>
+      </c>
+      <c r="T31">
+        <v>0.06199128914441388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.275429</v>
+      </c>
+      <c r="H32">
+        <v>0.5508580000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.1037143839415526</v>
+      </c>
+      <c r="J32">
+        <v>0.08256813214666382</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.921801</v>
+      </c>
+      <c r="N32">
+        <v>3.843602</v>
+      </c>
+      <c r="O32">
+        <v>0.2963026861879742</v>
+      </c>
+      <c r="P32">
+        <v>0.2443427896918877</v>
+      </c>
+      <c r="Q32">
+        <v>0.529319727629</v>
+      </c>
+      <c r="R32">
+        <v>2.117278910516</v>
+      </c>
+      <c r="S32">
+        <v>0.03073085055821291</v>
+      </c>
+      <c r="T32">
+        <v>0.02017492774836427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.275429</v>
+      </c>
+      <c r="H33">
+        <v>0.5508580000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.1037143839415526</v>
+      </c>
+      <c r="J33">
+        <v>0.08256813214666382</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.1523196666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.456959</v>
+      </c>
+      <c r="O33">
+        <v>0.02348459928608122</v>
+      </c>
+      <c r="P33">
+        <v>0.02904947932559493</v>
+      </c>
+      <c r="Q33">
+        <v>0.04195325347033334</v>
+      </c>
+      <c r="R33">
+        <v>0.2517195208220001</v>
+      </c>
+      <c r="S33">
+        <v>0.002435690747070138</v>
+      </c>
+      <c r="T33">
+        <v>0.002398561247747501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.275429</v>
+      </c>
+      <c r="H34">
+        <v>0.5508580000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.1037143839415526</v>
+      </c>
+      <c r="J34">
+        <v>0.08256813214666382</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.4109286666666667</v>
+      </c>
+      <c r="N34">
+        <v>1.232786</v>
+      </c>
+      <c r="O34">
+        <v>0.06335685524410488</v>
+      </c>
+      <c r="P34">
+        <v>0.07836981309019599</v>
+      </c>
+      <c r="Q34">
+        <v>0.1131816717313334</v>
+      </c>
+      <c r="R34">
+        <v>0.6790900303880001</v>
+      </c>
+      <c r="S34">
+        <v>0.006571017210116461</v>
+      </c>
+      <c r="T34">
+        <v>0.006470849083540646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.275429</v>
+      </c>
+      <c r="H35">
+        <v>0.5508580000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.1037143839415526</v>
+      </c>
+      <c r="J35">
+        <v>0.08256813214666382</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.9978816666666667</v>
+      </c>
+      <c r="N35">
+        <v>2.993645</v>
+      </c>
+      <c r="O35">
+        <v>0.1538530879789666</v>
+      </c>
+      <c r="P35">
+        <v>0.1903099151907953</v>
+      </c>
+      <c r="Q35">
+        <v>0.2748455495683333</v>
+      </c>
+      <c r="R35">
+        <v>1.64907329741</v>
+      </c>
+      <c r="S35">
+        <v>0.01595677823724401</v>
+      </c>
+      <c r="T35">
+        <v>0.01571353422629397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.275429</v>
+      </c>
+      <c r="H36">
+        <v>0.5508580000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.1037143839415526</v>
+      </c>
+      <c r="J36">
+        <v>0.08256813214666382</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.197361</v>
+      </c>
+      <c r="N36">
+        <v>3.592083</v>
+      </c>
+      <c r="O36">
+        <v>0.1846087501446398</v>
+      </c>
+      <c r="P36">
+        <v>0.2283533989796043</v>
+      </c>
+      <c r="Q36">
+        <v>0.329787942869</v>
+      </c>
+      <c r="R36">
+        <v>1.978727657214</v>
+      </c>
+      <c r="S36">
+        <v>0.01914658279147132</v>
+      </c>
+      <c r="T36">
+        <v>0.01885471362308782</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.275429</v>
+      </c>
+      <c r="H37">
+        <v>0.5508580000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.1037143839415526</v>
+      </c>
+      <c r="J37">
+        <v>0.08256813214666382</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.8056465</v>
+      </c>
+      <c r="N37">
+        <v>3.611293</v>
+      </c>
+      <c r="O37">
+        <v>0.2783940211582333</v>
+      </c>
+      <c r="P37">
+        <v>0.2295746037219218</v>
+      </c>
+      <c r="Q37">
+        <v>0.4973274098485</v>
+      </c>
+      <c r="R37">
+        <v>1.989309639394</v>
+      </c>
+      <c r="S37">
+        <v>0.02887346439743771</v>
+      </c>
+      <c r="T37">
+        <v>0.01895554621762962</v>
       </c>
     </row>
   </sheetData>
